--- a/data/codebook-covid-vac-willingness.xlsx
+++ b/data/codebook-covid-vac-willingness.xlsx
@@ -13,17 +13,17 @@
   <calcPr/>
   <extLst>
     <ext uri="smNativeData">
-      <pm:revision xmlns:pm="smNativeData" day="1620126989" val="982" rev="124" rev64="64" revOS="1" revMin="124" revMax="0"/>
-      <pm:docPrefs xmlns:pm="smNativeData" id="1620126989" fixedDigits="0" showNotice="1" showFrameBounds="1" autoChart="1" recalcOnPrint="1" recalcOnCopy="1" compatTextArt="1" tab="567" useDefinedPrintRange="1" printArea="currentSheet"/>
-      <pm:compatibility xmlns:pm="smNativeData" id="1620126989" overlapCells="1"/>
-      <pm:defCurrency xmlns:pm="smNativeData" id="1620126989"/>
+      <pm:revision xmlns:pm="smNativeData" day="1620157174" val="982" rev="124" rev64="64" revOS="1" revMin="124" revMax="0"/>
+      <pm:docPrefs xmlns:pm="smNativeData" id="1620157174" fixedDigits="0" showNotice="1" showFrameBounds="1" autoChart="1" recalcOnPrint="1" recalcOnCopy="1" compatTextArt="1" tab="567" useDefinedPrintRange="1" printArea="currentSheet"/>
+      <pm:compatibility xmlns:pm="smNativeData" id="1620157174" overlapCells="1"/>
+      <pm:defCurrency xmlns:pm="smNativeData" id="1620157174"/>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="63">
   <si>
     <t>id</t>
   </si>
@@ -182,6 +182,36 @@
   </si>
   <si>
     <t>m: male, w: female, d: diverse</t>
+  </si>
+  <si>
+    <t>extra</t>
+  </si>
+  <si>
+    <t>per prson mean value of extraversion</t>
+  </si>
+  <si>
+    <t>agree</t>
+  </si>
+  <si>
+    <t>per person mean value of agreeableness (Big Five trait)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">cons </t>
+  </si>
+  <si>
+    <t>per person mean value of conscientiousness (Big Five trait)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">open </t>
+  </si>
+  <si>
+    <t>per person mean value of openness (Big Five trait)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">neuro </t>
+  </si>
+  <si>
+    <t>per person mean value of neuroticism (Big Five trait)</t>
   </si>
 </sst>
 </file>
@@ -207,7 +237,7 @@
       <sz val="10"/>
       <extLst>
         <ext uri="smNativeData">
-          <pm:charSpec xmlns:pm="smNativeData" id="1620126989" ulstyle="none" kern="1">
+          <pm:charSpec xmlns:pm="smNativeData" id="1620157174" ulstyle="none" kern="1">
             <pm:latin face="Arial" sz="200" lang="default"/>
             <pm:cs face="Times New Roman" sz="200" lang="default"/>
             <pm:ea face="SimSun" sz="200" lang="default"/>
@@ -222,7 +252,7 @@
       <sz val="10"/>
       <extLst>
         <ext uri="smNativeData">
-          <pm:charSpec xmlns:pm="smNativeData" id="1620126989" ulstyle="none" kern="1">
+          <pm:charSpec xmlns:pm="smNativeData" id="1620157174" ulstyle="none" kern="1">
             <pm:latin face="Basic Sans" sz="200" lang="default"/>
             <pm:cs face="Basic Roman" sz="200" lang="default"/>
             <pm:ea face="Basic Roman" sz="200" lang="default"/>
@@ -238,7 +268,7 @@
       <sz val="10"/>
       <extLst>
         <ext uri="smNativeData">
-          <pm:charSpec xmlns:pm="smNativeData" id="1620126989" ulstyle="none" kern="1">
+          <pm:charSpec xmlns:pm="smNativeData" id="1620157174" ulstyle="none" kern="1">
             <pm:latin face="Arial" sz="200" lang="default" weight="bold"/>
             <pm:cs face="Times New Roman" sz="200" lang="default"/>
             <pm:ea face="SimSun" sz="200" lang="default"/>
@@ -260,7 +290,7 @@
         <bgColor rgb="FFFFFFFF"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:shade xmlns:pm="smNativeData" id="1620126989" type="1" fgLvl="100" fgClr="00FFFFFF" bgLvl="100" bgClr="00000000"/>
+            <pm:shade xmlns:pm="smNativeData" id="1620157174" type="1" fgLvl="100" fgClr="00FFFFFF" bgLvl="100" bgClr="00000000"/>
           </ext>
         </extLst>
       </patternFill>
@@ -282,7 +312,7 @@
       </bottom>
       <extLst>
         <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1620126989"/>
+          <pm:border xmlns:pm="smNativeData" id="1620157174"/>
         </ext>
       </extLst>
     </border>
@@ -301,7 +331,7 @@
       </bottom>
       <extLst>
         <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1620126989"/>
+          <pm:border xmlns:pm="smNativeData" id="1620157174"/>
         </ext>
       </extLst>
     </border>
@@ -320,7 +350,7 @@
   <tableStyles count="0"/>
   <extLst>
     <ext uri="smNativeData">
-      <pm:charStyles xmlns:pm="smNativeData" id="1620126989" count="1">
+      <pm:charStyles xmlns:pm="smNativeData" id="1620157174" count="1">
         <pm:charStyle name="Normal" fontId="0"/>
       </pm:charStyles>
     </ext>
@@ -584,10 +614,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E19"/>
+  <dimension ref="A1:E24"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="normal" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+    <sheetView tabSelected="1" view="normal" topLeftCell="A6" zoomScale="181" workbookViewId="0">
+      <selection activeCell="D24" sqref="D24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="9" defaultColWidth="10.000000" defaultRowHeight="13.45"/>
@@ -874,11 +904,81 @@
         <v>4</v>
       </c>
     </row>
+    <row r="20" spans="1:4">
+      <c r="A20" t="n">
+        <v>19</v>
+      </c>
+      <c r="B20" t="s">
+        <v>53</v>
+      </c>
+      <c r="C20" t="s">
+        <v>54</v>
+      </c>
+      <c r="D20" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4">
+      <c r="A21" t="n">
+        <v>20</v>
+      </c>
+      <c r="B21" t="s">
+        <v>55</v>
+      </c>
+      <c r="C21" t="s">
+        <v>56</v>
+      </c>
+      <c r="D21" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4">
+      <c r="A22" t="n">
+        <v>21</v>
+      </c>
+      <c r="B22" t="s">
+        <v>57</v>
+      </c>
+      <c r="C22" t="s">
+        <v>58</v>
+      </c>
+      <c r="D22" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4">
+      <c r="A23" t="n">
+        <v>22</v>
+      </c>
+      <c r="B23" t="s">
+        <v>59</v>
+      </c>
+      <c r="C23" t="s">
+        <v>60</v>
+      </c>
+      <c r="D23" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4">
+      <c r="A24" t="n">
+        <v>23</v>
+      </c>
+      <c r="B24" t="s">
+        <v>61</v>
+      </c>
+      <c r="C24" t="s">
+        <v>62</v>
+      </c>
+      <c r="D24" t="s">
+        <v>20</v>
+      </c>
+    </row>
   </sheetData>
   <printOptions>
     <extLst>
       <ext uri="smNativeData">
-        <pm:pageFlags xmlns:pm="smNativeData" id="1620126989" printRowHead="0" printColHead="0" printHeadLine="0" printFootLine="0" autoHeightHeader="0" autoHeightFooter="0" fitToPageBoth="0"/>
+        <pm:pageFlags xmlns:pm="smNativeData" id="1620157174" printRowHead="0" printColHead="0" printHeadLine="0" printFootLine="0" autoHeightHeader="0" autoHeightFooter="0" fitToPageBoth="0"/>
       </ext>
     </extLst>
   </printOptions>
@@ -887,14 +987,14 @@
   <headerFooter>
     <extLst>
       <ext uri="smNativeData">
-        <pm:header xmlns:pm="smNativeData" id="1620126989" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="0"/>
-        <pm:footer xmlns:pm="smNativeData" id="1620126989" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="2"/>
+        <pm:header xmlns:pm="smNativeData" id="1620157174" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="0"/>
+        <pm:footer xmlns:pm="smNativeData" id="1620157174" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="2"/>
       </ext>
     </extLst>
   </headerFooter>
   <extLst>
     <ext uri="smNativeData">
-      <pm:sheetPrefs xmlns:pm="smNativeData" day="1620126989" outlineProtect="1" showHorizontalRuler="1" showVerticalRuler="1" showAltShade="0">
+      <pm:sheetPrefs xmlns:pm="smNativeData" day="1620157174" outlineProtect="1" showHorizontalRuler="1" showVerticalRuler="1" showAltShade="0">
         <pm:shade id="0" type="0" fgLvl="100" fgClr="000000" bgLvl="100" bgClr="FFFFFF"/>
         <pm:shade id="1" type="0" fgLvl="100" fgClr="000000" bgLvl="100" bgClr="FFFFFF"/>
       </pm:sheetPrefs>
